--- a/python3.6/PIP_GEN_id-0/build/exe.win-amd64-3.6/Parts - Consoles.xlsx
+++ b/python3.6/PIP_GEN_id-0/build/exe.win-amd64-3.6/Parts - Consoles.xlsx
@@ -1079,7 +1079,7 @@
         <v>76</v>
       </c>
       <c r="BA2" s="2" t="n">
-        <v>43166.8069440436</v>
+        <v>43167.40323390845</v>
       </c>
     </row>
   </sheetData>
@@ -1252,7 +1252,7 @@
         <v>108</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43166.80643969086</v>
+        <v>43167.40308770119</v>
       </c>
       <c r="C11" t="s">
         <v>109</v>
